--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\demoProyects\ApiBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\demoProyects\aprendisajeactual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053E846F-8E91-4051-98A8-80B3B7F48778}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF2404B-4EE3-4C3C-92E1-A76B341AF9E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{85F44025-FEFD-407E-8033-F135F2B74FD8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20070" windowHeight="7515" xr2:uid="{85F44025-FEFD-407E-8033-F135F2B74FD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Prioridad</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Estado</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -445,7 +448,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +475,9 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -481,7 +486,9 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -490,7 +497,9 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -508,7 +517,9 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\demoProyects\aprendisajeactual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF2404B-4EE3-4C3C-92E1-A76B341AF9E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE781A4C-F3F3-40B0-B015-3BE296FE8AEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20070" windowHeight="7515" xr2:uid="{85F44025-FEFD-407E-8033-F135F2B74FD8}"/>
   </bookViews>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
-  <si>
-    <t>Prioridad</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Descripción</t>
   </si>
@@ -63,6 +60,15 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Completar formulario para la finalización de la compra</t>
+  </si>
+  <si>
+    <t>Crear funcion en el back para poder enviar correo</t>
+  </si>
+  <si>
+    <t>Crear formulario para administrador para el seguimiento de pedidos</t>
   </si>
 </sst>
 </file>
@@ -127,10 +133,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,99 +452,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D125FE-C70D-48DB-A56A-1229D88ED524}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
